--- a/PCB Design/.PCBsV3/RGW LED board.xlsx
+++ b/PCB Design/.PCBsV3/RGW LED board.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obradley\OneDrive - Olin College of Engineering\Documents\GitHub\FlyBox\PCB Design\.PCBsV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obradley\OneDrive - Olin College of Engineering\Documents\GitHub\FlyBox\PCB Design\.PCBsV3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00725ED-E1A6-45A7-B226-C650832773BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4511CC43-0C45-4AFF-BD5C-F3EFC972B5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,10 +138,10 @@
     </r>
   </si>
   <si>
-    <t>T-1V10W547848A BOM</t>
-  </si>
-  <si>
     <t>Würth Elektronik, from digikey</t>
+  </si>
+  <si>
+    <t>T-1D16W547848A BOM</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1087,7 +1087,7 @@
       <c r="B1" s="8"/>
       <c r="C1" s="2"/>
       <c r="D1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -1157,7 +1157,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6">
         <v>691213510002</v>
